--- a/url_detection_results.xlsx
+++ b/url_detection_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,330 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>108.61.209.12</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ip_address</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-08-03 16:43:46</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0/93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>108.61.209.12</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-08-03 16:50:22</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0/68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>108.61.209.12</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ip_address</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-08-03 17:14:57</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>108.61.209.12</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ip_address</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-08-03 17:15:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0/93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>108.61.209.12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ip_address</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-08-03 17:15:32</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0/93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>183.249.7.253</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ip_address</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-08-03 17:16:14</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0/93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>183.249.7.253</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ip_address</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-08-03 17:17:42</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0/93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>183.249.7.253</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ip_address</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-08-03 17:23:01</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0/93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>183.249.7.253</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ip_address</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-08-03 17:25:50</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0/93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>183.249.7.253</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ip_address</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-08-03 17:26:58</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0/93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>183.249.7.253</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ip_address</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-08-03 17:34:34</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0/93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>www.baidu.com</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-08-03 17:51:33</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1/95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
